--- a/AB_testing/prebid_and_GAM.xlsx
+++ b/AB_testing/prebid_and_GAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughb\PycharmProjects\ds-ad-hoc-analyses\AB_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE76605A-EE12-4786-89DF-283606DC8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{261E8374-3EA9-4ED6-82EB-587A28D786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3780" windowWidth="38640" windowHeight="21120" xr2:uid="{39D00325-457E-478E-A12E-3FF8D9C82922}"/>
   </bookViews>
@@ -16,12 +16,26 @@
     <sheet name="all sites Aug 20th" sheetId="2" r:id="rId1"/>
     <sheet name="limited sites" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>aer_requests</t>
   </si>
@@ -201,6 +215,69 @@
   </si>
   <si>
     <t>gam unfilled includes native render</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>rps</t>
+  </si>
+  <si>
+    <t>house can only be determined from gam?</t>
+  </si>
+  <si>
+    <t>gam impressions</t>
+  </si>
+  <si>
+    <t>gam_prebid_impressions + gam_NBF_impressions + gam_A9_impressions - gam_house_impressions</t>
+  </si>
+  <si>
+    <t>gam unfilled</t>
+  </si>
+  <si>
+    <t>gam_LIID0_unfilled + gam_house_impressions</t>
+  </si>
+  <si>
+    <t>gam_prebid_impressions + gam_NBF_impressions + gam_A9_impressions + gam_LIID0_unfilled</t>
+  </si>
+  <si>
+    <t>gam fill_rate</t>
+  </si>
+  <si>
+    <t>actual impressions (taking into account native render and house)</t>
+  </si>
+  <si>
+    <t>actual unfilled  (taking into account native render and house)</t>
+  </si>
+  <si>
+    <t>(gam_LIID0_unfilled - bwr_native_render_impressions + gam_house_impressions) OR (aer_unfilled + gam_house_impressions)</t>
+  </si>
+  <si>
+    <t>gam_LIID0_unfilled - bwr_native_render_impressions + gam_house_impressions</t>
+  </si>
+  <si>
+    <t>aer_unfilled + gam_house_impressions</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>requests (sum of above)</t>
+  </si>
+  <si>
+    <t>gam requests (based on aer)</t>
+  </si>
+  <si>
+    <t>requests method 1</t>
+  </si>
+  <si>
+    <t>requests method 2</t>
+  </si>
+  <si>
+    <t>bwr_impressions + gam_A9_impressions + gam_NBF_impressions - gam_house_impressions</t>
+  </si>
+  <si>
+    <t>actual fill_rate</t>
   </si>
 </sst>
 </file>
@@ -209,10 +286,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +420,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -691,31 +782,39 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1093,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E2974B-7816-4A71-BDE5-007096C1C6C8}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,31 +1312,31 @@
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
-        <f>B6/SUM($B6:$G6)</f>
+        <f t="shared" ref="B5:H5" si="0">B6/SUM($B6:$G6)</f>
         <v>7.9760074596713484E-2</v>
       </c>
       <c r="C5" s="8">
-        <f>C6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>3.5716017769773178E-2</v>
       </c>
       <c r="D5" s="8">
-        <f>D6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>0.12043635092342117</v>
       </c>
       <c r="E5" s="8">
-        <f>E6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>0.1208826150484139</v>
       </c>
       <c r="F5" s="8">
-        <f>F6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>0.17986670985617403</v>
       </c>
       <c r="G5" s="11">
-        <f>G6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>0.46333823180550426</v>
       </c>
       <c r="H5" s="8">
-        <f>H6/SUM($B6:$G6)</f>
+        <f t="shared" si="0"/>
         <v>6.8219148813869035E-2</v>
       </c>
     </row>
@@ -1410,7 +1509,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -1424,7 +1523,7 @@
       <c r="F14" s="1">
         <v>26685319</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="17">
         <v>146429322</v>
       </c>
       <c r="H14" s="1"/>
@@ -1482,7 +1581,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1"/>
@@ -1492,13 +1591,13 @@
       <c r="F18" s="1">
         <v>30806268</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="17">
         <v>170820809</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1"/>
@@ -1774,6 +1873,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
       <c r="G37" s="5" t="s">
         <v>42</v>
       </c>
@@ -1793,6 +1895,9 @@
         <v>0</v>
       </c>
       <c r="C40" s="1"/>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
       <c r="G40" s="5" t="s">
         <v>40</v>
       </c>
@@ -1828,10 +1933,152 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
+      <c r="G45" s="10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="13">
+        <f>G26+G29+G16</f>
+        <v>396909.98859329813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="10">
+        <f>G47/G6*1000</f>
+        <v>13.742811082143417</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="13">
+        <f>G30+G27+G24-G20</f>
+        <v>266061527</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="13">
+        <f>G22+G20</f>
+        <v>282509633</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="13">
+        <f>G30+G27+G24+G22</f>
+        <v>548571160</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="14">
+        <f>G53/G59</f>
+        <v>0.48500822937902899</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="13">
+        <f>G27+G24+G17-G20</f>
+        <v>430450112</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F68" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="16">
+        <f>G22-G18+G20</f>
+        <v>111688824</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="16">
+        <f>G9+G20</f>
+        <v>115667951</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="13">
+        <f>AVERAGE(G69,G68)</f>
+        <v>113678387.5</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="13">
+        <f>G70+G65</f>
+        <v>544128499.5</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G65/G72</f>
+        <v>0.79108172498874962</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AB_testing/prebid_and_GAM.xlsx
+++ b/AB_testing/prebid_and_GAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughb\PycharmProjects\ds-ad-hoc-analyses\AB_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261E8374-3EA9-4ED6-82EB-587A28D786A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{078DB985-3F4B-4284-83B4-A0411953FC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3780" windowWidth="38640" windowHeight="21120" xr2:uid="{39D00325-457E-478E-A12E-3FF8D9C82922}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t>aer_requests</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>actual fill_rate</t>
+  </si>
+  <si>
+    <t>bwr_native_render_revenue</t>
+  </si>
+  <si>
+    <t>bwr_gam_bypass_revenue</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -815,6 +821,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1192,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E2974B-7816-4A71-BDE5-007096C1C6C8}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,7 +1213,7 @@
     <col min="8" max="8" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1231,8 +1238,25 @@
       <c r="H1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1257,8 +1281,25 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1283,8 +1324,25 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1309,8 +1367,25 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <f t="shared" ref="B5:H5" si="0">B6/SUM($B6:$G6)</f>
         <v>7.9760074596713484E-2</v>
@@ -1339,8 +1414,25 @@
         <f t="shared" si="0"/>
         <v>6.8219148813869035E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1365,8 +1457,25 @@
       <c r="H6" s="1">
         <v>4252307</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1387,8 +1496,25 @@
         <v>655782541</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1407,8 +1533,25 @@
         <v>544272284</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1427,8 +1570,25 @@
         <v>95043738</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1447,8 +1607,25 @@
         <v>236870993</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1467,8 +1644,25 @@
         <v>526096917</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1681,25 @@
         <v>4602242</v>
       </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1507,8 +1718,25 @@
         <v>13573125</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
@@ -1527,8 +1755,25 @@
         <v>146429322</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1547,8 +1792,25 @@
         <v>4602242</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1563,112 +1825,227 @@
         <v>255946.27419730299</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>8</v>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>76858189</v>
+      <c r="F17" s="20">
+        <v>8108.9545956000702</v>
       </c>
       <c r="G17" s="5">
-        <v>316034710</v>
+        <v>69571.1236001988</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>9</v>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <v>30806268</v>
-      </c>
-      <c r="G18" s="17">
-        <v>170820809</v>
+        <v>2083.40867999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>119.84119699999999</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>10</v>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <v>16138274</v>
+        <v>76858189</v>
       </c>
       <c r="G19" s="5">
-        <v>1459675</v>
+        <v>316034710</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>11</v>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>4656182</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5">
-        <v>20624213</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1887445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>30806268</v>
+      </c>
+      <c r="G20" s="17">
+        <v>170820809</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>16138274</v>
+      </c>
       <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1459675</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>25914195</v>
+        <v>4656182</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="5">
-        <v>261885420</v>
+        <v>20624213</v>
       </c>
       <c r="H22" s="1">
-        <v>21092166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1887445</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1683,28 +2060,62 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>2923587</v>
+        <v>25914195</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="5">
-        <v>38066071</v>
+        <v>261885420</v>
       </c>
       <c r="H24" s="1">
-        <v>2250822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21092166</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1719,364 +2130,674 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>3811.3852642734701</v>
+        <v>2923587</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="5">
-        <v>46922.695986995401</v>
+        <v>38066071</v>
       </c>
       <c r="H26" s="1">
-        <v>2874.5682794592899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2250822</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>11445351</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="5">
-        <v>96973544</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>21196349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>3811.3852642734701</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="5">
-        <v>0</v>
+        <v>46922.695986995401</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2874.5682794592899</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>11501.7692839999</v>
+        <v>11445351</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="5">
-        <v>94041.018408999706</v>
+        <v>96973544</v>
       </c>
       <c r="H29" s="1">
-        <v>15623.666487000201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21196349</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>1679914</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="5">
-        <v>151646125</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>9489771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>11501.7692839999</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="5">
-        <v>0</v>
+        <v>94041.018408999706</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15623.666487000201</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>2292.08934036956</v>
+        <v>1679914</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="5">
+        <v>151646125</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9489771</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>2292.08934036956</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="5">
         <v>194890.71817627901</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H34" s="1">
         <v>12462.296966584499</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" s="9" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F37" t="s">
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G38" s="13">
-        <f>G17+G22+G24+G27-G18</f>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G40" s="13">
+        <f>G19+G24+G26+G29-G20</f>
         <v>542138936</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
-        <f>B20+B25+B27+B30-B21</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="F40" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <f>B22+B27+B29+B32-B23</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="F42" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41"/>
-      <c r="C41" s="1"/>
-      <c r="G41" s="5">
-        <f>G17+G9+G24+G27</f>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+    </row>
+    <row r="43" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+      <c r="C43" s="1"/>
+      <c r="G43" s="5">
+        <f>G19+G9+G26+G29</f>
         <v>546118063</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
-        <f>B20+B13+B27+B30</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
       <c r="C44" s="1"/>
-      <c r="G44" s="10" t="s">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <f>B22+B13+B29+B32</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C46" s="1"/>
+      <c r="G46" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="5"/>
-      <c r="C45" s="1"/>
-      <c r="G45" s="10" t="s">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="G47" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="5"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F47" t="s">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="13">
-        <f>G26+G29+G16</f>
+      <c r="G49" s="13">
+        <f>G28+G31+G16</f>
         <v>396909.98859329813</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F48" t="s">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="10">
-        <f>G47/G6*1000</f>
+      <c r="G50" s="10">
+        <f>G49/G6*1000</f>
         <v>13.742811082143417</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F52" t="s">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="13">
-        <f>G30+G27+G24-G20</f>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="13">
+        <f>G32+G29+G26-G22</f>
         <v>266061527</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F55" t="s">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="13">
-        <f>G22+G20</f>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="13">
+        <f>G24+G22</f>
         <v>282509633</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F58" t="s">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="13">
-        <f>G30+G27+G24+G22</f>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="13">
+        <f>G32+G29+G26+G24</f>
         <v>548571160</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F61" t="s">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="14">
-        <f>G53/G59</f>
+      <c r="G63" s="14">
+        <f>G55/G61</f>
         <v>0.48500822937902899</v>
       </c>
     </row>
-    <row r="64" spans="6:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F64" s="3" t="s">
+    <row r="66" spans="6:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G66" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="13">
-        <f>G27+G24+G17-G20</f>
+    <row r="67" spans="6:26" x14ac:dyDescent="0.35">
+      <c r="G67" s="13">
+        <f>G29+G26+G19-G22</f>
         <v>430450112</v>
       </c>
     </row>
-    <row r="67" spans="6:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F67" s="3" t="s">
+    <row r="69" spans="6:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G69" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="6:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="F68" s="7" t="s">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="6:26" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="F70" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="16">
-        <f>G22-G18+G20</f>
+      <c r="G70" s="16">
+        <f>G24-G20+G22</f>
         <v>111688824</v>
       </c>
     </row>
-    <row r="69" spans="6:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="F69" s="7" t="s">
+    <row r="71" spans="6:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F71" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G69" s="16">
-        <f>G9+G20</f>
+      <c r="G71" s="16">
+        <f>G9+G22</f>
         <v>115667951</v>
       </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F70" t="s">
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+    </row>
+    <row r="72" spans="6:26" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="13">
-        <f>AVERAGE(G69,G68)</f>
+      <c r="G72" s="13">
+        <f>AVERAGE(G71,G70)</f>
         <v>113678387.5</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F72" t="s">
+    <row r="74" spans="6:26" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="13">
-        <f>G70+G65</f>
+      <c r="G74" s="13">
+        <f>G72+G67</f>
         <v>544128499.5</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F74" t="s">
+    <row r="76" spans="6:26" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="14">
-        <f>G65/G72</f>
+      <c r="G76" s="14">
+        <f>G67/G74</f>
         <v>0.79108172498874962</v>
       </c>
     </row>

--- a/AB_testing/prebid_and_GAM.xlsx
+++ b/AB_testing/prebid_and_GAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughb\PycharmProjects\ds-ad-hoc-analyses\AB_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{078DB985-3F4B-4284-83B4-A0411953FC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF5F4E-B21D-4605-ACE1-43489E127C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3780" windowWidth="38640" windowHeight="21120" xr2:uid="{39D00325-457E-478E-A12E-3FF8D9C82922}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>aer_requests</t>
   </si>
@@ -211,21 +211,6 @@
     <t>prebid and gam</t>
   </si>
   <si>
-    <t>very similar to aer_requests</t>
-  </si>
-  <si>
-    <t>gam unfilled includes native render</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>rps</t>
-  </si>
-  <si>
-    <t>house can only be determined from gam?</t>
-  </si>
-  <si>
     <t>gam impressions</t>
   </si>
   <si>
@@ -238,9 +223,6 @@
     <t>gam_LIID0_unfilled + gam_house_impressions</t>
   </si>
   <si>
-    <t>gam_prebid_impressions + gam_NBF_impressions + gam_A9_impressions + gam_LIID0_unfilled</t>
-  </si>
-  <si>
     <t>gam fill_rate</t>
   </si>
   <si>
@@ -265,15 +247,6 @@
     <t>requests (sum of above)</t>
   </si>
   <si>
-    <t>gam requests (based on aer)</t>
-  </si>
-  <si>
-    <t>requests method 1</t>
-  </si>
-  <si>
-    <t>requests method 2</t>
-  </si>
-  <si>
     <t>bwr_impressions + gam_A9_impressions + gam_NBF_impressions - gam_house_impressions</t>
   </si>
   <si>
@@ -284,6 +257,107 @@
   </si>
   <si>
     <t>bwr_gam_bypass_revenue</t>
+  </si>
+  <si>
+    <t>gam request (sum of above)</t>
+  </si>
+  <si>
+    <t>above very similar to aer_requests</t>
+  </si>
+  <si>
+    <t>request method 1:</t>
+  </si>
+  <si>
+    <t>requests method 2:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gam_LIID0_unfilled </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(includes native render)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gam_house_impressions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can we get this from anywhere else)</t>
+    </r>
+  </si>
+  <si>
+    <t>above very similar to aer_requests (544k)</t>
+  </si>
+  <si>
+    <t>above not that similar to aer_requests (46k)</t>
+  </si>
+  <si>
+    <t>above not that similar to aer_requests (169k)</t>
+  </si>
+  <si>
+    <t>use 2nd approach</t>
+  </si>
+  <si>
+    <t>above not that similar to aer_requests (0k)</t>
+  </si>
+  <si>
+    <t>use 1st approach</t>
+  </si>
+  <si>
+    <t>gam_LIID0_unfilled+gam_A9_impressions+gam_NBF_impressions + gam_prebid_impressions</t>
+  </si>
+  <si>
+    <t>gam_A9_impressions + gam_NBF_impressions - gam_house_impressions + gam_prebid_impressions</t>
+  </si>
+  <si>
+    <t>requests from aer_requests</t>
+  </si>
+  <si>
+    <t>requests from asr</t>
+  </si>
+  <si>
+    <t>impressions = requests - unfilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aer_unfilled </t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>prebid_revenue</t>
+  </si>
+  <si>
+    <t>impressions</t>
+  </si>
+  <si>
+    <t>unfilled</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>unknown_data_status_count</t>
+  </si>
+  <si>
+    <t>fill rate</t>
   </si>
 </sst>
 </file>
@@ -788,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -814,7 +888,9 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -822,6 +898,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1199,18 +1283,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E2974B-7816-4A71-BDE5-007096C1C6C8}">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="6" width="25.36328125" customWidth="1"/>
-    <col min="7" max="7" width="25.36328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="2" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
@@ -1432,7 +1517,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1845,7 +1930,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1878,7 +1963,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2010,7 +2095,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2080,7 +2165,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2482,7 +2567,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="9" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
@@ -2525,280 +2610,799 @@
       <c r="Y36"/>
       <c r="Z36"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="F39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="5" t="s">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="F39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="G40" s="13">
+      <c r="C40" s="23">
+        <f>C7</f>
+        <v>9235711</v>
+      </c>
+      <c r="D40" s="16">
+        <f>D8</f>
+        <v>40005432</v>
+      </c>
+      <c r="E40" s="16">
+        <f>E19+E24+E26+E29-E20</f>
+        <v>40283133</v>
+      </c>
+      <c r="F40" s="16">
+        <f>F19+F24+F26+F29-F20</f>
+        <v>46051921</v>
+      </c>
+      <c r="G40" s="16">
         <f>G19+G24+G26+G29-G20</f>
         <v>542138936</v>
       </c>
-      <c r="H40" t="s">
-        <v>58</v>
+      <c r="H40" s="16">
+        <f>H19+H24+H26+H29-H20+H32</f>
+        <v>54029108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
         <f>B22+B27+B29+B32-B23</f>
         <v>0</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="F42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43"/>
-      <c r="C43" s="1"/>
-      <c r="G43" s="5">
+      <c r="F43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+    </row>
+    <row r="44" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15">
+        <f>E19+E9+E26+E29</f>
+        <v>39018622</v>
+      </c>
+      <c r="F44" s="15">
+        <f>F19+F9+F26+F29</f>
+        <v>107582859</v>
+      </c>
+      <c r="G44" s="15">
         <f>G19+G9+G26+G29</f>
         <v>546118063</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" s="15">
+        <f>H19+H9+H26+H29</f>
+        <v>23447171</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+    </row>
+    <row r="45" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <f>B22+B13+B29+B32</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
         <v>58</v>
       </c>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
-        <f>B22+B13+B29+B32</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C46" s="1"/>
-      <c r="G46" s="10" t="s">
+    </row>
+    <row r="48" spans="1:26" ht="58" x14ac:dyDescent="0.35">
+      <c r="G48" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
-      <c r="G47" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="13">
-        <f>G28+G31+G16</f>
-        <v>396909.98859329813</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="10">
-        <f>G49/G6*1000</f>
-        <v>13.742811082143417</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="13">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="16">
         <f>G32+G29+G26-G22</f>
         <v>266061527</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="13">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D50" s="23">
+        <f>D40-D69</f>
+        <v>24355419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G51" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G52" s="16">
         <f>G24+G22</f>
         <v>282509633</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="13">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G53" s="16"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G55" s="16">
+        <f>G49+G52</f>
+        <v>548571160</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G56" s="16">
         <f>G32+G29+G26+G24</f>
         <v>548571160</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="14">
-        <f>G55/G61</f>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G58" s="21">
+        <f>G49/G56</f>
         <v>0.48500822937902899</v>
       </c>
     </row>
-    <row r="66" spans="6:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="G67" s="13">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D62" s="16">
+        <f>D29+D26+D19-D22</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="16">
+        <f>E29+E26+E19-E22+E32</f>
+        <v>11392670</v>
+      </c>
+      <c r="F62" s="16">
+        <f>F29+F26+F19-F22</f>
+        <v>76858189</v>
+      </c>
+      <c r="G62" s="16">
         <f>G29+G26+G19-G22</f>
         <v>430450112</v>
       </c>
-    </row>
-    <row r="69" spans="6:26" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="6:26" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="F70" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" s="16">
+      <c r="H62" s="16">
+        <f>H29+H26+H19-H22+H32</f>
+        <v>31049497</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D67" s="16">
+        <f>D24-D20+D22</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="16">
+        <f>E24-E20+E22</f>
+        <v>30570377</v>
+      </c>
+      <c r="F67" s="16">
+        <f>F24-F20+F22</f>
+        <v>-30806268</v>
+      </c>
+      <c r="G67" s="16">
         <f>G24-G20+G22</f>
         <v>111688824</v>
       </c>
-    </row>
-    <row r="71" spans="6:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="F71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="16">
+      <c r="H67" s="16">
+        <f>H24-H20+H22</f>
+        <v>22979611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="D68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D69" s="16">
+        <f>D9+D22</f>
+        <v>15650013</v>
+      </c>
+      <c r="E69" s="16">
+        <f>E9+E22</f>
+        <v>29305866</v>
+      </c>
+      <c r="F69" s="16">
+        <f>F9+F22</f>
+        <v>30724670</v>
+      </c>
+      <c r="G69" s="16">
         <f>G9+G22</f>
         <v>115667951</v>
       </c>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-    </row>
-    <row r="72" spans="6:26" x14ac:dyDescent="0.35">
+      <c r="H69" s="16">
+        <f>H9+H22</f>
+        <v>1887445</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+    </row>
+    <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13">
+        <f>E67</f>
+        <v>30570377</v>
+      </c>
+      <c r="F71" s="13">
+        <f>F69</f>
+        <v>30724670</v>
+      </c>
+      <c r="G71" s="13">
+        <f>AVERAGE(G69,G67)</f>
+        <v>113678387.5</v>
+      </c>
+      <c r="H71" s="13">
+        <f>H67</f>
+        <v>22979611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
       <c r="F72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" s="13">
-        <f>AVERAGE(G71,G70)</f>
-        <v>113678387.5</v>
-      </c>
-    </row>
-    <row r="74" spans="6:26" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D73" s="13">
+        <f>D71+D62</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="13">
+        <f>E71+E62</f>
+        <v>41963047</v>
+      </c>
+      <c r="F73" s="13">
+        <f>F71+F62</f>
+        <v>107582859</v>
+      </c>
+      <c r="G73" s="13">
+        <f>G71+G62</f>
+        <v>544128499.5</v>
+      </c>
+      <c r="H73" s="13">
+        <f>H71+H62</f>
+        <v>54029108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
       <c r="F74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="13">
-        <f>G72+G67</f>
-        <v>544128499.5</v>
-      </c>
-    </row>
-    <row r="76" spans="6:26" x14ac:dyDescent="0.35">
-      <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" s="14">
-        <f>G67/G74</f>
+        <v>71</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D75" s="14">
+        <f>1-D69/D40</f>
+        <v>0.60880279957981709</v>
+      </c>
+      <c r="E75" s="14">
+        <f>E62/E73</f>
+        <v>0.27149291613642834</v>
+      </c>
+      <c r="F75" s="14">
+        <f>F62/F73</f>
+        <v>0.71440924432023134</v>
+      </c>
+      <c r="G75" s="14">
+        <f>G62/G73</f>
         <v>0.79108172498874962</v>
+      </c>
+      <c r="H75" s="14">
+        <f>H62/H73</f>
+        <v>0.57468091088973738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>17605.243888643101</v>
+      </c>
+      <c r="F77" s="1">
+        <v>74471.480310100203</v>
+      </c>
+      <c r="G77" s="1">
+        <v>396909.98859329103</v>
+      </c>
+      <c r="H77" s="1">
+        <v>30960.531733044001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2292.08934036956</v>
+      </c>
+      <c r="F78" s="1">
+        <v>74471.480310100203</v>
+      </c>
+      <c r="G78" s="1">
+        <v>255946.274197291</v>
+      </c>
+      <c r="H78" s="1">
+        <v>12462.296966584499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>24355419</v>
+      </c>
+      <c r="E79" s="1">
+        <v>11392670</v>
+      </c>
+      <c r="F79" s="1">
+        <v>76858189</v>
+      </c>
+      <c r="G79" s="1">
+        <v>430450112</v>
+      </c>
+      <c r="H79" s="1">
+        <v>31049497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>9235711</v>
+      </c>
+      <c r="D80" s="1">
+        <v>15650013</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30570377</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30724670</v>
+      </c>
+      <c r="G80" s="1">
+        <v>115667951</v>
+      </c>
+      <c r="H80" s="1">
+        <v>22979611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>9235711</v>
+      </c>
+      <c r="D81" s="1">
+        <v>40005432</v>
+      </c>
+      <c r="E81" s="1">
+        <v>41963047</v>
+      </c>
+      <c r="F81" s="1">
+        <v>107582859</v>
+      </c>
+      <c r="G81" s="1">
+        <v>546118063</v>
+      </c>
+      <c r="H81" s="1">
+        <v>54029108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="24">
+        <f>D79/D81</f>
+        <v>0.60880279957981709</v>
+      </c>
+      <c r="E84" s="24">
+        <f t="shared" ref="E84:H84" si="1">E79/E81</f>
+        <v>0.27149291613642834</v>
+      </c>
+      <c r="F84" s="24">
+        <f t="shared" si="1"/>
+        <v>0.71440924432023134</v>
+      </c>
+      <c r="G84" s="24">
+        <f t="shared" si="1"/>
+        <v>0.7881997340197846</v>
+      </c>
+      <c r="H84" s="24">
+        <f t="shared" si="1"/>
+        <v>0.57468091088973738</v>
       </c>
     </row>
   </sheetData>
